--- a/biology/Zoologie/Asterochernes_kuscheli/Asterochernes_kuscheli.xlsx
+++ b/biology/Zoologie/Asterochernes_kuscheli/Asterochernes_kuscheli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asterochernes kuscheli est une espèce de pseudoscorpions de la famille des Chernetidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Chili et en Argentine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Chili et en Argentine.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 3 mm et la femelle paratype 3,5 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 3 mm et la femelle paratype 3,5 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Pseudoscorpions of the World (version 3.0)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Pseudoscorpions of the World (version 3.0) :
 Asterochernes kuscheli kuscheli Beier, 1964 du Chili
 Asterochernes kuscheli patagonicus Beier, 1964 d'Argentine</t>
         </is>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Guillermo Kuschel[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Guillermo Kuschel.
 Le nom de la sous-espèce lui a été donné en référence au lieu de sa découverte, la Patagonie.
 </t>
         </is>
@@ -637,7 +657,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Beier, 1964 : Die Pseudoscorpioniden-Fauna Chiles. Annalen des Naturhistorischen Museums in Wien, vol. 67, p. 307-375 (texte intégral).
 Beier, 1964 : The zoological results of Gy. Topal's collectings in South Argentina. 15. Pseudoscorpionidea. Annales Historico Naturales Musei Nationalis Hungarici, vol. 56, p. 487-500.</t>
